--- a/web/upload/mebel.xlsx
+++ b/web/upload/mebel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ВТОРОЙ</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>sdfsLorem Ipsum - это текст-"рыба", часто используемый в печати и вэб-дизайне. Lorem Ipsum является стандартной "рыбой" для текстов на латинице с начала XVI века. В то время некий безымянный печатник создал большую коллекцию размеров и форм шрифтов, используя Lorem Ipsum для распечатки образцов. Lorem Ipsum не только успешно пережил без заметных изменений пять веков, но и перешагнул в электронный дизайн. Его популяризации в новое время послужили публикация листов Letraset с образцами Lorem Ipsum в 60-х годах и, в более недавнее время, программы электронной вёрстки типа Aldus PageMaker, в шаблонах которых используется Lorem Ipsum.dfsdf</t>
+  </si>
+  <si>
+    <t>жаба часто используемый в печати и вэб-дизайне. Lorem Ipsum является стандартной "рыбой" для текстов на латинице с начала XVI века. В то время некий безымянный печатник создал большую коллекцию размеров и форм шрифтов, используя Lorem Ipsum для распечатки образцов. Lorem Ipsum не только успешно пережил без заметных изменений пять веков, но и перешагнул в электронный дизайн. Его популяризации в новое время послужили публикация листов Letraset с образцами Lorem Ipsum в 60-х годах и, в более недавнее время, программы электронной вёрстки типа Aldus PageMaker, в шаблонах которых используется Lorem Ipsum.</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -377,10 +380,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -395,7 +401,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
